--- a/TheTable.xlsx
+++ b/TheTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Action" sheetId="1" r:id="rId1"/>
@@ -27460,8 +27460,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -27543,9 +27543,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -27559,14 +27558,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -27580,7 +27579,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -27596,39 +27595,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -27644,9 +27620,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -27667,21 +27666,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -27780,7 +27780,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27792,13 +27828,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27810,7 +27858,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27822,67 +27918,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27900,19 +27942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27924,43 +27954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28028,17 +28028,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -28054,11 +28043,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -28087,17 +28082,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -28125,6 +28114,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -28133,10 +28133,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -28145,16 +28145,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -28166,16 +28166,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -28184,94 +28178,100 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -28868,7 +28868,7 @@
   <sheetPr/>
   <dimension ref="A1:AR147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
@@ -37526,20 +37526,20 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M2 M5 M6 M7 M8 M9 M10 M11 M12 M13 M14 M15 M16 M20 M21 M22 M23 M24 M25 M26 M27 M28 M29 M30 M31 M32 M33 M34 M35 M36 M37 M38 M39 M40 M41 M42 M43 M44 M45 M46 M47 M48 M49 M50 M51 M52 M53 M54 M55 M56 M61 M62 M65 M66 M67 M68 M69 M70 M71 M72 M73 M74 M75 M76 M77 M78 M79 M82 M83 M84 M88 M89 M90 M91 M98 M99 M100 M101 M102 M106 M112 M113 M114 M115 M116 M117 M118 M119 M120 M121 M122 M123 M124 M125 M126 M127 M128 M129 M130 M131 M132 M133 M134 M135 M136 M137 M138 M139 M140 M141 M142 M143 M144 M145 M146 M147 M3:M4 M17:M19 M57:M58 M59:M60 M63:M64 M80:M81 M85:M87 M92:M97 M103:M105 M107:M111 M148:M1048576">
-      <formula1>"MELEE,RANGE,NONE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I2 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I126 I127 I128 I129 I130 I131 I132 I133 I134 I135 I136 I137 I138 I139 I140 I141 I142 I143 I144 I145 I146 I147 I3:I4 I17:I19 I59:I60 I96:I97 I148:I1048576">
+      <formula1>"SELF,ENEMY,ANY"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82 H83 H84 H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H98 H99 H100 H101 H102 H103 H104 H105 H106 H107 H110 H111 H112 H113 H114 H115 H116 H117 H118 H119 H120 H121 H122 H123 H124 H125 H126 H127 H128 H129 H130 H131 H132 H133 H134 H135 H136 H137 H138 H139 H140 H141 H142 H143 H144 H145 H146 H147 H2:H4 H17:H19 H59:H60 H96:H97 H108:H109 H148:H1048576">
+      <formula1>"TARGET,MULTI,NO_TARGTET,PASSIVE,GRID,MULTI_GRID"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K20 K21 K22 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K44 K45 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K58 K61 K62 K63 K64 K65 K66 K67 K68 K69 K70 K71 K72 K73 K74 K75 K76 K77 K78 K79 K80 K81 K82 K83 K84 K85 K86 K87 K88 K89 K90 K91 K92 K93 K94 K95 K98 K99 K100 K101 K102 K103 K104 K105 K106 K107 K108 K109 K110 K111 K112 K113 K114 K115 K116 K117 K118 K119 K120 K121 K122 K123 K124 K125 K126 K127 K128 K129 K130 K131 K132 K133 K134 K135 K136 K137 K138 K139 K140 K141 K142 K143 K144 K145 K146 K147 K3:K4 K17:K19 K59:K60 K96:K97 K148:K1048576">
+      <formula1>"ATK,CAST"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L2 L5 L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L20 L21 L22 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 L48 L49 L50 L51 L52 L53 L54 L55 L56 L57 L58 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L131 L132 L133 L134 L135 L136 L137 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L3:L4 L17:L19 L59:L60 L96:L97 L148:L1048576">
       <formula1>"PHYSICAL,PURE,NATURE,LIGHT,WATER,FIRE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82 H83 H84 H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H98 H99 H100 H101 H102 H103 H104 H105 H106 H107 H110 H111 H112 H113 H114 H115 H116 H117 H118 H119 H120 H121 H122 H123 H124 H125 H126 H127 H128 H129 H130 H131 H132 H133 H134 H135 H136 H137 H138 H139 H140 H141 H142 H143 H144 H145 H146 H147 H2:H4 H17:H19 H59:H60 H96:H97 H108:H109 H148:H1048576">
-      <formula1>"TARGET,MULTI,NO_TARGTET,PASSIVE,GRID,MULTI_GRID"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I2 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I126 I127 I128 I129 I130 I131 I132 I133 I134 I135 I136 I137 I138 I139 I140 I141 I142 I143 I144 I145 I146 I147 I3:I4 I17:I19 I59:I60 I96:I97 I148:I1048576">
-      <formula1>"SELF,ENEMY,ANY"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K20 K21 K22 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K44 K45 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K58 K61 K62 K63 K64 K65 K66 K67 K68 K69 K70 K71 K72 K73 K74 K75 K76 K77 K78 K79 K80 K81 K82 K83 K84 K85 K86 K87 K88 K89 K90 K91 K92 K93 K94 K95 K98 K99 K100 K101 K102 K103 K104 K105 K106 K107 K108 K109 K110 K111 K112 K113 K114 K115 K116 K117 K118 K119 K120 K121 K122 K123 K124 K125 K126 K127 K128 K129 K130 K131 K132 K133 K134 K135 K136 K137 K138 K139 K140 K141 K142 K143 K144 K145 K146 K147 K3:K4 K17:K19 K59:K60 K96:K97 K148:K1048576">
-      <formula1>"ATK,CAST"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M2 M5 M6 M7 M8 M9 M10 M11 M12 M13 M14 M15 M16 M20 M21 M22 M23 M24 M25 M26 M27 M28 M29 M30 M31 M32 M33 M34 M35 M36 M37 M38 M39 M40 M41 M42 M43 M44 M45 M46 M47 M48 M49 M50 M51 M52 M53 M54 M55 M56 M61 M62 M65 M66 M67 M68 M69 M70 M71 M72 M73 M74 M75 M76 M77 M78 M79 M82 M83 M84 M88 M89 M90 M91 M98 M99 M100 M101 M102 M106 M112 M113 M114 M115 M116 M117 M118 M119 M120 M121 M122 M123 M124 M125 M126 M127 M128 M129 M130 M131 M132 M133 M134 M135 M136 M137 M138 M139 M140 M141 M142 M143 M144 M145 M146 M147 M3:M4 M17:M19 M57:M58 M59:M60 M63:M64 M80:M81 M85:M87 M92:M97 M103:M105 M107:M111 M148:M1048576">
+      <formula1>"MELEE,RANGE,NONE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5 J6 J7 J8 J9 J10 J14 J15 J16 J20 J21 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J50 J51 J56 J61 J62 J65 J66 J67 J68 J69 J70 J71 J75 J76 J77 J78 J79 J82 J83 J84 J89 J90 J91 J98 J99 J100 J101 J102 J112 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J126 J127 J128 J129 J130 J131 J132 J133 J134 J135 J136 J137 J138 J139 J140 J141 J142 J143 J144 J145 J146 J147 J2:J4 J11:J13 J17:J19 J22:J24 J48:J49 J52:J55 J57:J58 J59:J60 J63:J64 J72:J74 J80:J81 J85:J88 J92:J97 J103:J111 J113:J115 J148:J1048576">
       <formula1>"NONE,NO_EMPTY"</formula1>
@@ -37550,7 +37550,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="K122:M128 H122:H128 I122:I128 K1:M1 K148:M1048576 K118:M119 H148:H1048576 H118:H119 I148:I1048576 I118:I119 I1 H1" listDataValidation="1"/>
+    <ignoredError sqref="H1 I1 I118:I119 I148:I1048576 H118:H119 H148:H1048576 K118:M119 K148:M1048576 K1:M1 I122:I128 H122:H128 K122:M128" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -37560,8 +37560,8 @@
   <sheetPr/>
   <dimension ref="A1:AF89"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -38027,7 +38027,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="40">
-        <v>1.5</v>
+        <v>1500</v>
       </c>
       <c r="V5" s="40">
         <v>1.5</v>
@@ -51451,6 +51451,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I2 I10 K10 I11 K11 I12 K12 I13 K13 I14 K14 I17 K17 I18 K18 I19 K19 I20 K20 I21 K21 I22 K22 I23 K23 I28 K28 I29 K29 I30 K30 I35 K35 I36 K36 I37 K37 I43 K43 I44 K44 I45 K45 I46 K46 I49 K49 I53 K53 I54 K54 I59 K59 I60 K60 I61 K61 I66 I70 K70 I71 K71 I72 K72 I73 K73 I74 K74 I75 K75 I76 K76 I77 K77 I78 K78 I15:I16 I24:I27 I31:I34 I38:I42 I47:I48 I50:I52 I55:I58 I62:I65 I67:I69 I133:I1048576 K15:K16 K24:K27 K31:K34 K38:K42 K47:K48 K50:K52 K55:K58 K62:K66 K67:K69">
       <formula1>"ture,false"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N15 N16 N22 N23 N29 N30 N36 N37 N43 N44 N49 N53 N54 N59 N60 N61 N66 N70 N71 N75 N76 N77 N78 N10:N14 N17:N21 N24:N28 N31:N35 N38:N42 N45:N48 N50:N52 N55:N58 N62:N65 N67:N69 N72:N74">
+      <formula1>"CARD_ARMOR,CARD_WEAPON,CARD_SHOES,CARD_ADD,CARD_GEM"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K133:K1048576">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -51460,15 +51463,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"CARD_ARMOR,CARD_WEAPON,CARD_SHOES,CARD_ADD,BOX"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N15 N16 N22 N23 N29 N30 N36 N37 N43 N44 N49 N53 N54 N59 N60 N61 N66 N70 N71 N75 N76 N77 N78 N10:N14 N17:N21 N24:N28 N31:N35 N38:N42 N45:N48 N50:N52 N55:N58 N62:N65 N67:N69 N72:N74">
-      <formula1>"CARD_ARMOR,CARD_WEAPON,CARD_SHOES,CARD_ADD,CARD_GEM"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="I1 K1 N1" listDataValidation="1"/>
+    <ignoredError sqref="N1 K1 I1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -53496,20 +53496,20 @@
     <row r="11" ht="15" customHeight="1"/>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
-      <formula1>"MELEE,RANGE,NONE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
+      <formula1>"SELF,ENEMY,ANY"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1">
+      <formula1>"TARGET,MULTI,NO_TARGTET,PASSIVE,GRID,MULTI_GRID"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+      <formula1>"ATK,CAST"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1">
       <formula1>"PHYSICAL,PURE,NATURE,LIGHT,WATER,FIRE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1">
-      <formula1>"TARGET,MULTI,NO_TARGTET,PASSIVE,GRID,MULTI_GRID"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
-      <formula1>"SELF,ENEMY,ANY"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
-      <formula1>"ATK,CAST"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+      <formula1>"MELEE,RANGE,NONE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -53991,20 +53991,20 @@
     <row r="55" s="11" customFormat="1"/>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
-      <formula1>"MELEE,RANGE,NONE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1">
+      <formula1>"SELF,ENEMY,ANY"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+      <formula1>"TARGET,MULTI,NO_TARGTET,PASSIVE,GRID,MULTI_GRID"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+      <formula1>"ATK,CAST"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
       <formula1>"PHYSICAL,PURE,NATURE,LIGHT,WATER,FIRE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
-      <formula1>"TARGET,MULTI,NO_TARGTET,PASSIVE,GRID,MULTI_GRID"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1">
-      <formula1>"SELF,ENEMY,ANY"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
-      <formula1>"ATK,CAST"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
+      <formula1>"MELEE,RANGE,NONE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -72546,11 +72546,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 N2">
       <formula1>"ATK,CAST"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1 O2">
+      <formula1>"PHYSICAL,PURE,NATURE,LIGHT,WATER,FIRE"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P2">
       <formula1>"MELEE,RANGE,NONE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1 O2">
-      <formula1>"PHYSICAL,PURE,NATURE,LIGHT,WATER,FIRE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TheTable.xlsx
+++ b/TheTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Action" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Drop" sheetId="5" r:id="rId5"/>
     <sheet name="Affix" sheetId="6" r:id="rId6"/>
     <sheet name="Schedule" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="Matrix" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -27461,8 +27461,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
@@ -27543,8 +27543,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -27558,7 +27566,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -27571,15 +27579,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -27610,26 +27611,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -27642,10 +27635,25 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -27659,7 +27667,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -27667,21 +27682,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -27780,19 +27780,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27804,67 +27840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27882,13 +27858,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27900,7 +27876,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27912,13 +27912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27930,25 +27924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27960,7 +27936,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28028,6 +28028,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -28058,15 +28073,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -28086,22 +28092,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -28111,6 +28102,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -28133,10 +28133,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -28145,16 +28145,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -28166,10 +28166,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -28178,100 +28184,94 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -28868,7 +28868,7 @@
   <sheetPr/>
   <dimension ref="A1:AR147"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
@@ -37526,20 +37526,20 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I2 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I126 I127 I128 I129 I130 I131 I132 I133 I134 I135 I136 I137 I138 I139 I140 I141 I142 I143 I144 I145 I146 I147 I3:I4 I17:I19 I59:I60 I96:I97 I148:I1048576">
-      <formula1>"SELF,ENEMY,ANY"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M2 M5 M6 M7 M8 M9 M10 M11 M12 M13 M14 M15 M16 M20 M21 M22 M23 M24 M25 M26 M27 M28 M29 M30 M31 M32 M33 M34 M35 M36 M37 M38 M39 M40 M41 M42 M43 M44 M45 M46 M47 M48 M49 M50 M51 M52 M53 M54 M55 M56 M61 M62 M65 M66 M67 M68 M69 M70 M71 M72 M73 M74 M75 M76 M77 M78 M79 M82 M83 M84 M88 M89 M90 M91 M98 M99 M100 M101 M102 M106 M112 M113 M114 M115 M116 M117 M118 M119 M120 M121 M122 M123 M124 M125 M126 M127 M128 M129 M130 M131 M132 M133 M134 M135 M136 M137 M138 M139 M140 M141 M142 M143 M144 M145 M146 M147 M3:M4 M17:M19 M57:M58 M59:M60 M63:M64 M80:M81 M85:M87 M92:M97 M103:M105 M107:M111 M148:M1048576">
+      <formula1>"MELEE,RANGE,NONE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82 H83 H84 H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H98 H99 H100 H101 H102 H103 H104 H105 H106 H107 H110 H111 H112 H113 H114 H115 H116 H117 H118 H119 H120 H121 H122 H123 H124 H125 H126 H127 H128 H129 H130 H131 H132 H133 H134 H135 H136 H137 H138 H139 H140 H141 H142 H143 H144 H145 H146 H147 H2:H4 H17:H19 H59:H60 H96:H97 H108:H109 H148:H1048576">
       <formula1>"TARGET,MULTI,NO_TARGTET,PASSIVE,GRID,MULTI_GRID"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I2 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I126 I127 I128 I129 I130 I131 I132 I133 I134 I135 I136 I137 I138 I139 I140 I141 I142 I143 I144 I145 I146 I147 I3:I4 I17:I19 I59:I60 I96:I97 I148:I1048576">
+      <formula1>"SELF,ENEMY,ANY"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K20 K21 K22 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K44 K45 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K58 K61 K62 K63 K64 K65 K66 K67 K68 K69 K70 K71 K72 K73 K74 K75 K76 K77 K78 K79 K80 K81 K82 K83 K84 K85 K86 K87 K88 K89 K90 K91 K92 K93 K94 K95 K98 K99 K100 K101 K102 K103 K104 K105 K106 K107 K108 K109 K110 K111 K112 K113 K114 K115 K116 K117 K118 K119 K120 K121 K122 K123 K124 K125 K126 K127 K128 K129 K130 K131 K132 K133 K134 K135 K136 K137 K138 K139 K140 K141 K142 K143 K144 K145 K146 K147 K3:K4 K17:K19 K59:K60 K96:K97 K148:K1048576">
       <formula1>"ATK,CAST"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L2 L5 L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L20 L21 L22 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 L48 L49 L50 L51 L52 L53 L54 L55 L56 L57 L58 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L131 L132 L133 L134 L135 L136 L137 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L3:L4 L17:L19 L59:L60 L96:L97 L148:L1048576">
       <formula1>"PHYSICAL,PURE,NATURE,LIGHT,WATER,FIRE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M2 M5 M6 M7 M8 M9 M10 M11 M12 M13 M14 M15 M16 M20 M21 M22 M23 M24 M25 M26 M27 M28 M29 M30 M31 M32 M33 M34 M35 M36 M37 M38 M39 M40 M41 M42 M43 M44 M45 M46 M47 M48 M49 M50 M51 M52 M53 M54 M55 M56 M61 M62 M65 M66 M67 M68 M69 M70 M71 M72 M73 M74 M75 M76 M77 M78 M79 M82 M83 M84 M88 M89 M90 M91 M98 M99 M100 M101 M102 M106 M112 M113 M114 M115 M116 M117 M118 M119 M120 M121 M122 M123 M124 M125 M126 M127 M128 M129 M130 M131 M132 M133 M134 M135 M136 M137 M138 M139 M140 M141 M142 M143 M144 M145 M146 M147 M3:M4 M17:M19 M57:M58 M59:M60 M63:M64 M80:M81 M85:M87 M92:M97 M103:M105 M107:M111 M148:M1048576">
-      <formula1>"MELEE,RANGE,NONE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5 J6 J7 J8 J9 J10 J14 J15 J16 J20 J21 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J50 J51 J56 J61 J62 J65 J66 J67 J68 J69 J70 J71 J75 J76 J77 J78 J79 J82 J83 J84 J89 J90 J91 J98 J99 J100 J101 J102 J112 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J126 J127 J128 J129 J130 J131 J132 J133 J134 J135 J136 J137 J138 J139 J140 J141 J142 J143 J144 J145 J146 J147 J2:J4 J11:J13 J17:J19 J22:J24 J48:J49 J52:J55 J57:J58 J59:J60 J63:J64 J72:J74 J80:J81 J85:J88 J92:J97 J103:J111 J113:J115 J148:J1048576">
       <formula1>"NONE,NO_EMPTY"</formula1>
@@ -37550,7 +37550,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="H1 I1 I118:I119 I148:I1048576 H118:H119 H148:H1048576 K118:M119 K148:M1048576 K1:M1 I122:I128 H122:H128 K122:M128" listDataValidation="1"/>
+    <ignoredError sqref="K122:M128 H122:H128 I122:I128 K1:M1 K148:M1048576 K118:M119 H148:H1048576 H118:H119 I148:I1048576 I118:I119 I1 H1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -37560,8 +37560,8 @@
   <sheetPr/>
   <dimension ref="A1:AF89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -38027,7 +38027,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="40">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="V5" s="40">
         <v>1.5</v>
@@ -51451,24 +51451,24 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I2 I10 K10 I11 K11 I12 K12 I13 K13 I14 K14 I17 K17 I18 K18 I19 K19 I20 K20 I21 K21 I22 K22 I23 K23 I28 K28 I29 K29 I30 K30 I35 K35 I36 K36 I37 K37 I43 K43 I44 K44 I45 K45 I46 K46 I49 K49 I53 K53 I54 K54 I59 K59 I60 K60 I61 K61 I66 I70 K70 I71 K71 I72 K72 I73 K73 I74 K74 I75 K75 I76 K76 I77 K77 I78 K78 I15:I16 I24:I27 I31:I34 I38:I42 I47:I48 I50:I52 I55:I58 I62:I65 I67:I69 I133:I1048576 K15:K16 K24:K27 K31:K34 K38:K42 K47:K48 K50:K52 K55:K58 K62:K66 K67:K69">
       <formula1>"ture,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N15 N16 N22 N23 N29 N30 N36 N37 N43 N44 N49 N53 N54 N59 N60 N61 N66 N70 N71 N75 N76 N77 N78 N10:N14 N17:N21 N24:N28 N31:N35 N38:N42 N45:N48 N50:N52 N55:N58 N62:N65 N67:N69 N72:N74">
-      <formula1>"CARD_ARMOR,CARD_WEAPON,CARD_SHOES,CARD_ADD,CARD_GEM"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K133:K1048576">
       <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"CARD_ARMOR,CARD_WEAPON,CARD_SHOES,CARD_ADD,BOX"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 N133:N1048576">
       <formula1>"CARD_ARMOR,CARD_WEAPON,CARD_SHOES,CARD_ADD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"CARD_ARMOR,CARD_WEAPON,CARD_SHOES,CARD_ADD,BOX"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N15 N16 N22 N23 N29 N30 N36 N37 N43 N44 N49 N53 N54 N59 N60 N61 N66 N70 N71 N75 N76 N77 N78 N10:N14 N17:N21 N24:N28 N31:N35 N38:N42 N45:N48 N50:N52 N55:N58 N62:N65 N67:N69 N72:N74">
+      <formula1>"CARD_ARMOR,CARD_WEAPON,CARD_SHOES,CARD_ADD,CARD_GEM"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="N1 K1 I1" listDataValidation="1"/>
+    <ignoredError sqref="I1 K1 N1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -53496,20 +53496,20 @@
     <row r="11" ht="15" customHeight="1"/>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
-      <formula1>"SELF,ENEMY,ANY"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+      <formula1>"MELEE,RANGE,NONE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1">
       <formula1>"TARGET,MULTI,NO_TARGTET,PASSIVE,GRID,MULTI_GRID"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
+      <formula1>"SELF,ENEMY,ANY"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
       <formula1>"ATK,CAST"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1">
       <formula1>"PHYSICAL,PURE,NATURE,LIGHT,WATER,FIRE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
-      <formula1>"MELEE,RANGE,NONE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -53991,20 +53991,20 @@
     <row r="55" s="11" customFormat="1"/>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1">
-      <formula1>"SELF,ENEMY,ANY"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
+      <formula1>"MELEE,RANGE,NONE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
       <formula1>"TARGET,MULTI,NO_TARGTET,PASSIVE,GRID,MULTI_GRID"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1">
+      <formula1>"SELF,ENEMY,ANY"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
       <formula1>"ATK,CAST"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
       <formula1>"PHYSICAL,PURE,NATURE,LIGHT,WATER,FIRE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
-      <formula1>"MELEE,RANGE,NONE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -72563,8 +72563,8 @@
   <sheetPr/>
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
